--- a/biology/Neurosciences/David_Hunter_Hubel/David_Hunter_Hubel.xlsx
+++ b/biology/Neurosciences/David_Hunter_Hubel/David_Hunter_Hubel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Hunter Hubel, né le 27 février 1926 à Windsor, Ontario, Canada et mort le 22 septembre 2013[1] à Lincoln, Massachusetts, est un neurobiologiste américano-canadien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Hunter Hubel, né le 27 février 1926 à Windsor, Ontario, Canada et mort le 22 septembre 2013 à Lincoln, Massachusetts, est un neurobiologiste américano-canadien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1929, sa famille déménage à Montréal où il reçoit sa formation. De six à dix-huit ans, il étudie à l'Académie Strathcona d'Outremont. Il étudie les mathématiques et la physique à l'Université McGill puis la médecine. En 1954, il déménage aux États-Unis pour travailler à l'université Johns-Hopkins, à Baltimore, mais il est conscrit par l'armée et sert au hôpital Walter-Reed, à Washington. Là, il commence à étudier le cortex visuel primaire (aussi appelé cortex strié ou aire V1) de chats endormis et éveillés. À Walter-Reed, il invente la microélectrode métallique moderne et le micro-descendeur hydraulique qu'il apprend à confectionner. En 1958, il déménage à Johns Hopkins et commence sa collaboration avec Wiesel, et découvre la « sélectivité de l'orientation » et l'« organisation en colonne » dans le cortex visuel. Un an plus tard, il rejoint l'université Harvard.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les expériences de Hubel et Wiesel ont beaucoup enrichi la connaissance scientifique du processus sensoriel. Dans une expérience effectuée en 1959, ils ont inséré une microélectrode dans le cortex visuel primaire d'un chat anesthésié. Ils ont alors projeté des schémas de lumière et d'obscurité sur un écran en face du chat. Ils ont observé que quelques neurones s'activent rapidement quand les schémas sont présentés à un certain angle, alors que d'autres répondent mieux à un autre angle. Quelques-uns de ces neurones répondent différemment aux schémas de lumière qu'aux schémas d'obscurité. Hubel et Wiesel ont appelé ces neurones : « cellules simples ». Alors que d'autres neurones, pour lesquels ils ont choisi le terme « cellules complexes », ont des réponses identiques aux schémas de lumière et d'obscurité. Ces études montrent comment le système visuel construit des représentations complexes de l'information visuelle à partir de stimulations simples. (Goldstein, 2001)
 Hubel et Wiesel ont reçu le prix Nobel pour deux contributions majeures : 
@@ -575,13 +591,49 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1981 : Prix Nobel de physiologie ou médecine avec Torsten Wiesel pour « leurs découvertes concernant le traitement de l'information dans le système visuel » ; le prix était partagé avec Roger Sperry pour ses travaux, indépendants, sur le rôle des hémisphères cérébraux. (en) Prix Nobel : lauréats 1981
 2006 : Temple de la renommée médicale canadienne
-2007 : Docteur honoris causa de l'Université de Montréal[2]
-Publications
-(en) David H. Hubel, Eye, brain, and vision, New York, Scientific American Library, 1988, 240 p. (OCLC 16649224)
+2007 : Docteur honoris causa de l'Université de Montréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Hunter_Hubel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Hunter_Hubel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) David H. Hubel, Eye, brain, and vision, New York, Scientific American Library, 1988, 240 p. (OCLC 16649224)
 David H. Hubel (trad. par Pascale This), L'œil, le cerveau et la vision : les étapes cérébrales du traitement visuel, Paris, Pour la science, diffusion Belin, 1994  (ISBN 2-9029-1867-4)</t>
         </is>
       </c>
